--- a/docentes/Villanueva Morales Luis Arturo - Estadisticos 20211.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,75 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>MENA</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HIPOLITO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ANGELES</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>KEVIN ISAAC</t>
+  </si>
+  <si>
+    <t>MIROSLAVA</t>
+  </si>
+  <si>
+    <t>JOSE JULIAN</t>
+  </si>
+  <si>
+    <t>ALDO GEOVANNI</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>PEDRO ANGEL</t>
+  </si>
+  <si>
+    <t>DAVID OSWALDO</t>
+  </si>
+  <si>
+    <t>ZAYRA</t>
   </si>
 </sst>
 </file>
@@ -503,16 +572,19 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>70.45</v>
+      </c>
+      <c r="H3">
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -526,16 +598,19 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>69.77</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -549,16 +624,19 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>66.67</v>
+      </c>
+      <c r="H5">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +718,7 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -663,7 +741,7 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -686,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -774,16 +852,19 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>70.45</v>
+      </c>
+      <c r="H3">
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -797,16 +878,19 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>69.77</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -820,16 +904,19 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>66.67</v>
+      </c>
+      <c r="H5">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +926,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -872,6 +959,190 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920005</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920078</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920092</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920098</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920038</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Villanueva Morales Luis Arturo - Estadisticos 20211.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo - Estadisticos 20211.xlsx
@@ -88,61 +88,61 @@
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HIPOLITO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
     <t>MENA</t>
   </si>
   <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HIPOLITO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
+    <t>KEVIN ISAAC</t>
+  </si>
+  <si>
+    <t>MIROSLAVA</t>
+  </si>
+  <si>
+    <t>JOSE JULIAN</t>
+  </si>
+  <si>
+    <t>ALDO GEOVANNI</t>
+  </si>
+  <si>
+    <t>PEDRO ANGEL</t>
+  </si>
+  <si>
+    <t>DAVID OSWALDO</t>
+  </si>
+  <si>
+    <t>ZAYRA</t>
   </si>
   <si>
     <t>ANGELES</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>KEVIN ISAAC</t>
-  </si>
-  <si>
-    <t>MIROSLAVA</t>
-  </si>
-  <si>
-    <t>JOSE JULIAN</t>
-  </si>
-  <si>
-    <t>ALDO GEOVANNI</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>PEDRO ANGEL</t>
-  </si>
-  <si>
-    <t>DAVID OSWALDO</t>
-  </si>
-  <si>
-    <t>ZAYRA</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="G2">
-        <v>69.23</v>
+        <v>67.5</v>
       </c>
       <c r="H2">
         <v>6.3</v>
@@ -621,22 +621,22 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5">
-        <v>66.67</v>
+        <v>57.14</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>27</v>
@@ -758,13 +758,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>27</v>
       </c>
       <c r="G2">
-        <v>69.23</v>
+        <v>67.5</v>
       </c>
       <c r="H2">
         <v>6.3</v>
@@ -901,22 +901,22 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5">
-        <v>66.67</v>
+        <v>57.14</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920105</v>
+        <v>21330051920135</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -1068,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920135</v>
+        <v>21330051920136</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920136</v>
+        <v>21330051920038</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1114,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920038</v>
+        <v>21330051920105</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>6</v>
